--- a/Caballero Rosas María Teresa 20212.xlsx
+++ b/Caballero Rosas María Teresa 20212.xlsx
@@ -6995,7 +6995,7 @@
         <v>751</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7400,7 +7400,7 @@
         <v>846</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">

--- a/Caballero Rosas María Teresa 20212.xlsx
+++ b/Caballero Rosas María Teresa 20212.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1110">
   <si>
     <t>NC</t>
   </si>
@@ -142,6 +142,9 @@
     <t>RUIZ</t>
   </si>
   <si>
+    <t>RUBALCAVA</t>
+  </si>
+  <si>
     <t>SAN JUAN</t>
   </si>
   <si>
@@ -238,6 +241,9 @@
     <t>ZEPEDA</t>
   </si>
   <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
     <t>ARAUZ</t>
   </si>
   <si>
@@ -350,6 +356,9 @@
   </si>
   <si>
     <t>ARANTXA</t>
+  </si>
+  <si>
+    <t>BRIANDA RENEE</t>
   </si>
   <si>
     <t>ISAI</t>
@@ -3695,7 +3704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3753,28 +3762,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3791,22 +3800,22 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3820,28 +3829,28 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3855,28 +3864,28 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -3893,22 +3902,22 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -3922,28 +3931,28 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -3957,28 +3966,28 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -3992,25 +4001,25 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4024,22 +4033,22 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -4053,28 +4062,28 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4088,28 +4097,28 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J12" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -4123,28 +4132,28 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J13" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4158,25 +4167,25 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4190,22 +4199,22 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J15" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4222,22 +4231,22 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -4254,22 +4263,22 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H17" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -4283,28 +4292,28 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I18" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -4318,28 +4327,28 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H19" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I19" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J19" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -4353,28 +4362,28 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H20" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J20" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -4388,25 +4397,25 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -4420,28 +4429,28 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I22" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J22" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -4458,22 +4467,22 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I23" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J23" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -4487,25 +4496,25 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H24" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I24" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J24" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -4519,25 +4528,25 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H25" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I25" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J25" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -4551,25 +4560,25 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H26" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I26" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J26" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -4583,25 +4592,25 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J27" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -4618,22 +4627,22 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G28" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H28" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -4647,25 +4656,25 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -4679,28 +4688,28 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="J30" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -4714,25 +4723,25 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -4746,28 +4755,28 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G32" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I32" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="J32" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -4781,28 +4790,28 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G33" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H33" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -4819,25 +4828,25 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G34" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H34" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I34" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -4845,63 +4854,48 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>21330051920279</v>
+        <v>21330051420149</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" t="s">
-        <v>154</v>
-      </c>
-      <c r="F35" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" t="s">
-        <v>221</v>
-      </c>
-      <c r="H35" t="s">
-        <v>260</v>
-      </c>
-      <c r="I35" t="s">
-        <v>293</v>
-      </c>
-      <c r="J35" t="s">
-        <v>322</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>21330051920280</v>
+        <v>21330051920279</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="F36" t="s">
+        <v>198</v>
       </c>
       <c r="G36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H36" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
       </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -4909,203 +4903,197 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>21330051920282</v>
+        <v>21330051920280</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" t="s">
-        <v>196</v>
+        <v>158</v>
+      </c>
+      <c r="G37" t="s">
+        <v>225</v>
       </c>
       <c r="H37" t="s">
-        <v>262</v>
-      </c>
-      <c r="I37" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="J37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>21330051920283</v>
+        <v>21330051920282</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
-      </c>
-      <c r="G38" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="H38" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
       </c>
       <c r="J38" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>21330051920284</v>
+        <v>21330051920283</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H39" t="s">
-        <v>264</v>
-      </c>
-      <c r="I39" t="s">
-        <v>158</v>
+        <v>266</v>
       </c>
       <c r="J39" t="s">
-        <v>325</v>
+        <v>200</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>21330051920285</v>
+        <v>21330051920284</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H40" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I40" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="J40" t="s">
-        <v>199</v>
+        <v>328</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>21330051920286</v>
+        <v>21330051920285</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F41" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G41" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="H41" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I41" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J41" t="s">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>20330051920358</v>
+        <v>21330051920286</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H42" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I42" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J42" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -5113,62 +5101,97 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>21330051920287</v>
+        <v>20330051920358</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="G43" t="s">
+        <v>204</v>
       </c>
       <c r="H43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I43" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J43" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>21330051920288</v>
+        <v>21330051920287</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>163</v>
-      </c>
-      <c r="G44" t="s">
-        <v>226</v>
+        <v>165</v>
+      </c>
+      <c r="F44" t="s">
+        <v>205</v>
       </c>
       <c r="H44" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="I44" t="s">
+        <v>301</v>
       </c>
       <c r="J44" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>21330051920288</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" t="s">
+        <v>229</v>
+      </c>
+      <c r="H45" t="s">
+        <v>272</v>
+      </c>
+      <c r="J45" t="s">
+        <v>332</v>
+      </c>
+      <c r="K45">
         <v>2</v>
       </c>
     </row>
@@ -5234,25 +5257,25 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5263,28 +5286,28 @@
         <v>21330051920290</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H3" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="I3" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="J3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5295,25 +5318,25 @@
         <v>21330051920291</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F4" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H4" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="J4" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -5324,31 +5347,31 @@
         <v>21330051920292</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G5" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H5" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="I5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="J5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5359,28 +5382,28 @@
         <v>21330051920293</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F6" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H6" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="I6" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="J6" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -5391,31 +5414,31 @@
         <v>21330051920294</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="J7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -5426,25 +5449,25 @@
         <v>21330051920295</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E8" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H8" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="J8" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -5455,28 +5478,28 @@
         <v>21330051920296</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F9" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H9" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I9" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="J9" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -5490,22 +5513,22 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G10" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H10" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J10" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5516,31 +5539,31 @@
         <v>21330051920298</v>
       </c>
       <c r="B11" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E11" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F11" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G11" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H11" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I11" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="J11" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -5551,31 +5574,31 @@
         <v>21330051920299</v>
       </c>
       <c r="B12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F12" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G12" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H12" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I12" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="J12" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -5586,28 +5609,28 @@
         <v>21330051920337</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D13" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E13" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F13" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H13" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="I13" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="J13" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -5621,22 +5644,22 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G14" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H14" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="J14" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -5647,31 +5670,31 @@
         <v>21330051920301</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C15" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D15" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E15" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F15" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G15" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H15" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I15" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="J15" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -5682,31 +5705,31 @@
         <v>21330051920302</v>
       </c>
       <c r="B16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C16" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D16" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E16" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F16" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G16" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H16" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="I16" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="J16" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -5717,28 +5740,28 @@
         <v>21330051920303</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D17" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E17" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H17" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I17" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="J17" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -5749,28 +5772,28 @@
         <v>21330051920304</v>
       </c>
       <c r="B18" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C18" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D18" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E18" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F18" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G18" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H18" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="J18" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -5781,25 +5804,25 @@
         <v>21330051920305</v>
       </c>
       <c r="B19" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C19" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E19" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G19" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H19" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="J19" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -5810,28 +5833,28 @@
         <v>21330051920306</v>
       </c>
       <c r="B20" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E20" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F20" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H20" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I20" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="J20" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -5842,28 +5865,28 @@
         <v>20330051920235</v>
       </c>
       <c r="B21" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E21" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F21" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H21" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="I21" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="J21" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -5877,25 +5900,25 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D22" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E22" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F22" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G22" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H22" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="J22" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -5906,31 +5929,31 @@
         <v>21330051920308</v>
       </c>
       <c r="B23" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C23" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D23" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E23" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F23" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G23" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H23" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="I23" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="J23" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -5941,28 +5964,28 @@
         <v>21330051920309</v>
       </c>
       <c r="B24" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C24" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D24" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E24" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F24" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H24" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="I24" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="J24" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -5973,31 +5996,31 @@
         <v>21330051920090</v>
       </c>
       <c r="B25" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C25" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D25" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E25" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F25" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G25" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H25" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="I25" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="J25" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -6014,25 +6037,25 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E26" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F26" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G26" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H26" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="I26" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="J26" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -6043,28 +6066,28 @@
         <v>21330051920311</v>
       </c>
       <c r="B27" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C27" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D27" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E27" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F27" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G27" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="H27" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="J27" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -6075,28 +6098,28 @@
         <v>21330051920312</v>
       </c>
       <c r="B28" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E28" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F28" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G28" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H28" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="J28" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -6107,28 +6130,28 @@
         <v>21330051920313</v>
       </c>
       <c r="B29" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C29" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D29" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F29" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H29" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="I29" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="J29" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -6139,28 +6162,28 @@
         <v>21330051920314</v>
       </c>
       <c r="B30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D30" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E30" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F30" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G30" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H30" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="J30" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -6171,31 +6194,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B31" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C31" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D31" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E31" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F31" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G31" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="H31" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I31" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="J31" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -6206,28 +6229,28 @@
         <v>21330051920315</v>
       </c>
       <c r="B32" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C32" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D32" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E32" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F32" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H32" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="I32" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="J32" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -6238,28 +6261,28 @@
         <v>21330051920316</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C33" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D33" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E33" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F33" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H33" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="I33" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="J33" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -6270,28 +6293,28 @@
         <v>21330051920317</v>
       </c>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C34" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D34" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E34" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F34" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G34" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H34" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="J34" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -6305,25 +6328,25 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D35" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E35" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F35" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G35" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H35" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="J35" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -6340,22 +6363,22 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E36" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F36" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G36" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H36" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="J36" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -6369,25 +6392,25 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D37" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E37" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F37" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H37" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I37" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="J37" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -6401,28 +6424,28 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D38" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E38" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F38" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G38" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H38" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="I38" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="J38" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -6436,28 +6459,28 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E39" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F39" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G39" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H39" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="I39" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="J39" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -6471,28 +6494,28 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E40" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F40" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G40" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H40" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="I40" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="J40" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -6503,28 +6526,28 @@
         <v>21330051920326</v>
       </c>
       <c r="B41" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E41" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F41" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H41" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="I41" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="J41" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -6535,28 +6558,28 @@
         <v>21330051920327</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E42" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F42" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H42" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="I42" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J42" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -6567,31 +6590,31 @@
         <v>21330051920328</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D43" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E43" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F43" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G43" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H43" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="I43" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="J43" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -6602,31 +6625,31 @@
         <v>21330051920329</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D44" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E44" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F44" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G44" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H44" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="I44" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="J44" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -6637,31 +6660,31 @@
         <v>21330051920330</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D45" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E45" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F45" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G45" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H45" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="I45" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="J45" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -6729,28 +6752,28 @@
         <v>19330051920148</v>
       </c>
       <c r="B2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="E2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="H2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="I2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="J2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -6761,31 +6784,31 @@
         <v>19330051920149</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C3" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="E3" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="G3" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="H3" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="I3" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="J3" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -6796,31 +6819,31 @@
         <v>19330051920150</v>
       </c>
       <c r="B4" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C4" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D4" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E4" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F4" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="G4" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="H4" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="I4" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="J4" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -6831,31 +6854,31 @@
         <v>19330051920153</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C5" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D5" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="E5" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="F5" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="G5" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="H5" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="I5" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J5" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -6866,31 +6889,31 @@
         <v>19330051920152</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="E6" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F6" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="G6" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="H6" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="I6" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="J6" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -6901,28 +6924,28 @@
         <v>19330051920154</v>
       </c>
       <c r="B7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="G7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="H7" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="J7" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -6933,31 +6956,31 @@
         <v>19330051920276</v>
       </c>
       <c r="B8" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E8" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F8" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="G8" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H8" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="I8" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="J8" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -6968,31 +6991,31 @@
         <v>19330051920151</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E9" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F9" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="G9" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="H9" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="I9" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J9" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -7003,31 +7026,31 @@
         <v>19330051920157</v>
       </c>
       <c r="B10" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D10" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E10" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F10" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="G10" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="H10" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="I10" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="J10" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7041,28 +7064,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="E11" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F11" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="G11" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H11" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="I11" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="J11" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -7076,25 +7099,25 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D12" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="E12" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="F12" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="H12" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="I12" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="J12" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -7108,28 +7131,28 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E13" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F13" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="G13" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="H13" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="I13" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="J13" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -7140,28 +7163,28 @@
         <v>19330051920423</v>
       </c>
       <c r="B14" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C14" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D14" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E14" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F14" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="H14" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="I14" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="J14" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -7172,31 +7195,31 @@
         <v>19330051920281</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E15" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F15" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="G15" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="H15" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="I15" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="J15" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -7210,25 +7233,25 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D16" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E16" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F16" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="G16" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="H16" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="J16" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -7239,31 +7262,31 @@
         <v>19330051920162</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D17" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="E17" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F17" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="G17" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="H17" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="I17" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="J17" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -7277,25 +7300,25 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D18" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="E18" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F18" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="H18" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="I18" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="J18" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -7306,31 +7329,31 @@
         <v>19330051920163</v>
       </c>
       <c r="B19" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="E19" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F19" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="G19" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="H19" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="I19" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="J19" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -7341,31 +7364,31 @@
         <v>19330051920156</v>
       </c>
       <c r="B20" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E20" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="F20" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="G20" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="H20" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="I20" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="J20" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -7376,28 +7399,28 @@
         <v>19330051920165</v>
       </c>
       <c r="B21" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C21" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D21" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="E21" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F21" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="G21" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="H21" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="J21" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -7408,25 +7431,25 @@
         <v>19330051920166</v>
       </c>
       <c r="B22" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C22" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D22" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E22" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="F22" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="H22" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I22" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -7437,28 +7460,28 @@
         <v>19330051920168</v>
       </c>
       <c r="B23" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E23" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F23" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="H23" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="I23" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="J23" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -7469,31 +7492,31 @@
         <v>19330051920170</v>
       </c>
       <c r="B24" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E24" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F24" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="G24" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="H24" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="I24" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="J24" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -7504,31 +7527,31 @@
         <v>19330051920172</v>
       </c>
       <c r="B25" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C25" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D25" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E25" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="F25" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="G25" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="H25" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="I25" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="J25" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -7542,28 +7565,28 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D26" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E26" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F26" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="G26" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="H26" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="I26" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="J26" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -7574,28 +7597,28 @@
         <v>19330051920176</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E27" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F27" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="H27" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="I27" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="J27" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -7606,31 +7629,31 @@
         <v>19330051920174</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E28" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F28" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="G28" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="H28" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="I28" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="J28" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -7641,31 +7664,31 @@
         <v>19330051920175</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D29" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E29" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F29" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="G29" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="H29" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="I29" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="J29" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -7676,31 +7699,31 @@
         <v>19330051920178</v>
       </c>
       <c r="B30" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C30" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D30" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E30" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F30" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="G30" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="H30" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="I30" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="J30" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -7711,31 +7734,31 @@
         <v>19330051920179</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E31" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F31" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="G31" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H31" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="I31" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="J31" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -7746,31 +7769,31 @@
         <v>19330051920181</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D32" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E32" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="F32" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="G32" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="H32" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="I32" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="J32" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -7781,31 +7804,31 @@
         <v>19330051920180</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E33" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F33" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="G33" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H33" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="I33" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="J33" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -7816,31 +7839,31 @@
         <v>19330051920303</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D34" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="E34" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F34" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="G34" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="H34" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="I34" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="J34" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -7851,31 +7874,31 @@
         <v>19330051920182</v>
       </c>
       <c r="B35" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C35" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D35" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E35" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F35" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="G35" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="H35" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="I35" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="J35" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -7886,31 +7909,31 @@
         <v>19330051920183</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D36" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E36" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F36" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="G36" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="H36" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="I36" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="J36" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -7978,28 +8001,28 @@
         <v>20330051920187</v>
       </c>
       <c r="B2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="E2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="F2" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="H2" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="I2" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="J2" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8010,28 +8033,28 @@
         <v>20330051920220</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="E3" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="F3" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="G3" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="H3" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="J3" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8042,28 +8065,28 @@
         <v>20330051920221</v>
       </c>
       <c r="B4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C4" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D4" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E4" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="F4" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="H4" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="I4" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="J4" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -8074,28 +8097,28 @@
         <v>20330051920374</v>
       </c>
       <c r="B5" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="E5" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="F5" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="H5" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="I5" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="J5" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -8106,31 +8129,31 @@
         <v>20330051920222</v>
       </c>
       <c r="B6" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C6" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D6" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="E6" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="F6" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="G6" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="H6" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="I6" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="J6" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -8141,28 +8164,28 @@
         <v>20330051920223</v>
       </c>
       <c r="B7" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C7" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D7" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E7" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="F7" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="H7" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="I7" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="J7" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -8173,31 +8196,31 @@
         <v>20330051920224</v>
       </c>
       <c r="B8" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="E8" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="F8" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="G8" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="H8" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="I8" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="J8" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8208,28 +8231,28 @@
         <v>20330051920225</v>
       </c>
       <c r="B9" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C9" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D9" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E9" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="F9" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="G9" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="H9" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="J9" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8243,25 +8266,25 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="E10" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="F10" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="H10" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="I10" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="J10" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8275,25 +8298,25 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D11" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="E11" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="F11" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="G11" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="H11" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="J11" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8304,31 +8327,31 @@
         <v>20330051920227</v>
       </c>
       <c r="B12" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D12" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="E12" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="F12" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="G12" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="H12" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="I12" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="J12" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -8342,28 +8365,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D13" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="E13" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="F13" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="G13" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="H13" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="I13" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="J13" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -8380,25 +8403,25 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="E14" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="F14" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="G14" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="H14" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="I14" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="J14" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -8412,25 +8435,25 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D15" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="E15" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="F15" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="G15" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="H15" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="J15" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -8441,31 +8464,31 @@
         <v>20330051920231</v>
       </c>
       <c r="B16" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C16" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="D16" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="E16" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="F16" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="G16" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="H16" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="I16" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="J16" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -8476,31 +8499,31 @@
         <v>20330051920232</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C17" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D17" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="E17" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="F17" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="G17" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="H17" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="I17" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="J17" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -8511,31 +8534,31 @@
         <v>20330051920233</v>
       </c>
       <c r="B18" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C18" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D18" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="E18" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="F18" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="G18" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="H18" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="I18" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="J18" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -8546,31 +8569,31 @@
         <v>20330051920234</v>
       </c>
       <c r="B19" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C19" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D19" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E19" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="F19" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="G19" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="H19" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="I19" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="J19" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -8581,31 +8604,31 @@
         <v>20330051920376</v>
       </c>
       <c r="B20" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C20" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D20" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E20" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="F20" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="G20" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="H20" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="I20" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="J20" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -8616,31 +8639,31 @@
         <v>20330051920236</v>
       </c>
       <c r="B21" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="E21" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="F21" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="G21" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="H21" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="I21" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="J21" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -8651,28 +8674,28 @@
         <v>20330051920237</v>
       </c>
       <c r="B22" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C22" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="F22" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="H22" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="I22" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="J22" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -8686,28 +8709,28 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D23" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E23" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F23" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="G23" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="H23" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="I23" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="J23" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -8718,31 +8741,31 @@
         <v>20330051920239</v>
       </c>
       <c r="B24" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C24" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D24" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="E24" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="F24" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="G24" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="H24" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="I24" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="J24" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -8756,28 +8779,28 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D25" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E25" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="F25" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="G25" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="H25" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="I25" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="J25" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -8788,31 +8811,31 @@
         <v>20330051920241</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D26" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="E26" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="F26" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="G26" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="H26" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="I26" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="J26" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -8823,31 +8846,31 @@
         <v>20330051920243</v>
       </c>
       <c r="B27" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E27" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="F27" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="G27" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="H27" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="I27" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="J27" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -8858,25 +8881,25 @@
         <v>20330051920244</v>
       </c>
       <c r="B28" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C28" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D28" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E28" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="F28" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="H28" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="J28" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -8890,28 +8913,28 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D29" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="E29" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="F29" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="G29" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="H29" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="I29" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="J29" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -8925,28 +8948,28 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D30" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="E30" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="F30" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="G30" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="H30" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="I30" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="J30" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -8957,31 +8980,31 @@
         <v>20330051920250</v>
       </c>
       <c r="B31" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C31" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D31" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E31" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="F31" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="G31" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="H31" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="I31" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="J31" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -8992,28 +9015,28 @@
         <v>20330051920251</v>
       </c>
       <c r="B32" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C32" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D32" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="E32" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="F32" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="H32" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="I32" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="J32" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -9024,31 +9047,31 @@
         <v>20330051920252</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E33" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="F33" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="G33" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="H33" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="I33" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="J33" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -9059,28 +9082,28 @@
         <v>20330051920253</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D34" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E34" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="F34" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="G34" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="H34" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="J34" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -9091,28 +9114,28 @@
         <v>20330051920256</v>
       </c>
       <c r="B35" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E35" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="F35" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="H35" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="I35" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="J35" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -9123,31 +9146,31 @@
         <v>20330051920257</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D36" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="E36" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F36" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="H36" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="I36" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="J36" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -9158,25 +9181,25 @@
         <v>20330051920258</v>
       </c>
       <c r="B37" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C37" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D37" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="E37" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="F37" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="G37" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="H37" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -9187,25 +9210,25 @@
         <v>20330051920259</v>
       </c>
       <c r="B38" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C38" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D38" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E38" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="F38" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="G38" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="H38" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="K38">
         <v>2</v>

--- a/Caballero Rosas María Teresa 20212.xlsx
+++ b/Caballero Rosas María Teresa 20212.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="1112">
   <si>
     <t>NC</t>
   </si>
@@ -490,6 +490,9 @@
     <t>arantxitautam@gmail.com</t>
   </si>
   <si>
+    <t>#N/D</t>
+  </si>
+  <si>
     <t>sanjuanarauzisai@gmail.com</t>
   </si>
   <si>
@@ -806,6 +809,9 @@
   </si>
   <si>
     <t>HAIDE JIMÉNEZ CERÓN</t>
+  </si>
+  <si>
+    <t>#N/D #N/D #N/D</t>
   </si>
   <si>
     <t>ARCENIA ARAUZ ROSAS</t>
@@ -3771,19 +3777,19 @@
         <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3806,16 +3812,16 @@
         <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3838,19 +3844,19 @@
         <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3873,19 +3879,19 @@
         <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -3908,16 +3914,16 @@
         <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -3940,19 +3946,19 @@
         <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I7" t="s">
         <v>129</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -3975,19 +3981,19 @@
         <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -4010,16 +4016,16 @@
         <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4042,13 +4048,13 @@
         <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -4071,19 +4077,19 @@
         <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4106,19 +4112,19 @@
         <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -4141,19 +4147,19 @@
         <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4176,16 +4182,16 @@
         <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4208,13 +4214,13 @@
         <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4237,16 +4243,16 @@
         <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -4269,16 +4275,16 @@
         <v>139</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -4301,19 +4307,19 @@
         <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -4336,19 +4342,19 @@
         <v>141</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I19" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J19" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -4371,19 +4377,19 @@
         <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J20" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -4406,16 +4412,16 @@
         <v>143</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -4438,19 +4444,19 @@
         <v>144</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I22" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J22" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -4473,16 +4479,16 @@
         <v>145</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I23" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -4505,16 +4511,16 @@
         <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I24" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J24" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -4537,16 +4543,16 @@
         <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I25" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J25" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -4569,16 +4575,16 @@
         <v>148</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -4601,16 +4607,16 @@
         <v>149</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I27" t="s">
         <v>149</v>
       </c>
       <c r="J27" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -4633,16 +4639,16 @@
         <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J28" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -4665,16 +4671,16 @@
         <v>151</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I29" t="s">
         <v>151</v>
       </c>
       <c r="J29" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -4697,19 +4703,19 @@
         <v>152</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J30" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -4732,16 +4738,16 @@
         <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -4764,19 +4770,19 @@
         <v>154</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -4799,19 +4805,19 @@
         <v>155</v>
       </c>
       <c r="F33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -4834,19 +4840,19 @@
         <v>156</v>
       </c>
       <c r="F34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J34" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -4865,6 +4871,24 @@
       <c r="D35" t="s">
         <v>113</v>
       </c>
+      <c r="E35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" t="s">
+        <v>264</v>
+      </c>
+      <c r="I35" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" t="s">
+        <v>157</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
@@ -4880,22 +4904,22 @@
         <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H36" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J36" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -4915,16 +4939,16 @@
         <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H37" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J37" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4944,19 +4968,19 @@
         <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H38" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I38" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -4976,19 +5000,19 @@
         <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H39" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -5008,22 +5032,22 @@
         <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H40" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J40" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -5043,22 +5067,22 @@
         <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H41" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I41" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -5078,22 +5102,22 @@
         <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H42" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I42" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J42" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -5113,22 +5137,22 @@
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H43" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I43" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J43" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -5148,19 +5172,19 @@
         <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H44" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I44" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J44" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -5180,16 +5204,16 @@
         <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H45" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J45" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -5257,25 +5281,25 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5286,28 +5310,28 @@
         <v>21330051920290</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="J3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5318,25 +5342,25 @@
         <v>21330051920291</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -5347,31 +5371,31 @@
         <v>21330051920292</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="I5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5382,28 +5406,28 @@
         <v>21330051920293</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H6" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I6" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -5414,31 +5438,31 @@
         <v>21330051920294</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -5449,25 +5473,25 @@
         <v>21330051920295</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H8" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -5478,28 +5502,28 @@
         <v>21330051920296</v>
       </c>
       <c r="B9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -5513,22 +5537,22 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J10" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5539,31 +5563,31 @@
         <v>21330051920298</v>
       </c>
       <c r="B11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F11" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H11" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="I11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J11" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -5574,31 +5598,31 @@
         <v>21330051920299</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E12" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G12" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="I12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J12" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -5609,28 +5633,28 @@
         <v>21330051920337</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C13" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D13" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E13" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F13" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H13" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="I13" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J13" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -5644,22 +5668,22 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E14" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G14" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H14" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J14" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -5670,31 +5694,31 @@
         <v>21330051920301</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D15" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E15" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F15" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G15" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H15" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="I15" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J15" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -5705,31 +5729,31 @@
         <v>21330051920302</v>
       </c>
       <c r="B16" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D16" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E16" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F16" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H16" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="I16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J16" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -5740,28 +5764,28 @@
         <v>21330051920303</v>
       </c>
       <c r="B17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C17" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D17" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E17" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F17" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H17" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="J17" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -5772,28 +5796,28 @@
         <v>21330051920304</v>
       </c>
       <c r="B18" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C18" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D18" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E18" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F18" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G18" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H18" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J18" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -5804,25 +5828,25 @@
         <v>21330051920305</v>
       </c>
       <c r="B19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D19" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E19" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H19" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -5833,28 +5857,28 @@
         <v>21330051920306</v>
       </c>
       <c r="B20" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E20" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F20" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H20" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I20" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="J20" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -5865,28 +5889,28 @@
         <v>20330051920235</v>
       </c>
       <c r="B21" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E21" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H21" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I21" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="J21" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -5900,25 +5924,25 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D22" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E22" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F22" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G22" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H22" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J22" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -5929,31 +5953,31 @@
         <v>21330051920308</v>
       </c>
       <c r="B23" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C23" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D23" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E23" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F23" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G23" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H23" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="I23" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J23" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -5964,28 +5988,28 @@
         <v>21330051920309</v>
       </c>
       <c r="B24" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D24" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E24" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F24" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H24" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I24" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="J24" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -5996,31 +6020,31 @@
         <v>21330051920090</v>
       </c>
       <c r="B25" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C25" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D25" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E25" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F25" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G25" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H25" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I25" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="J25" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -6037,25 +6061,25 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E26" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F26" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G26" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H26" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I26" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J26" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -6066,28 +6090,28 @@
         <v>21330051920311</v>
       </c>
       <c r="B27" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C27" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D27" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E27" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F27" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G27" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H27" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J27" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -6098,28 +6122,28 @@
         <v>21330051920312</v>
       </c>
       <c r="B28" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E28" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F28" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G28" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H28" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J28" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -6130,28 +6154,28 @@
         <v>21330051920313</v>
       </c>
       <c r="B29" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D29" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E29" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F29" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H29" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="I29" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="J29" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -6162,28 +6186,28 @@
         <v>21330051920314</v>
       </c>
       <c r="B30" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C30" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D30" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E30" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F30" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G30" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H30" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="J30" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -6194,31 +6218,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B31" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C31" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D31" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E31" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G31" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H31" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="I31" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -6229,28 +6253,28 @@
         <v>21330051920315</v>
       </c>
       <c r="B32" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C32" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D32" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E32" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F32" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H32" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I32" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="J32" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -6261,28 +6285,28 @@
         <v>21330051920316</v>
       </c>
       <c r="B33" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C33" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D33" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E33" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F33" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H33" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I33" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J33" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -6293,28 +6317,28 @@
         <v>21330051920317</v>
       </c>
       <c r="B34" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C34" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D34" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E34" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F34" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G34" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H34" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J34" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -6328,25 +6352,25 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D35" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E35" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F35" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G35" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H35" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J35" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -6363,22 +6387,22 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E36" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F36" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G36" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H36" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="J36" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -6392,25 +6416,25 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D37" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E37" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F37" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H37" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I37" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="J37" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -6424,28 +6448,28 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D38" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E38" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F38" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G38" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H38" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I38" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J38" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -6462,25 +6486,25 @@
         <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E39" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F39" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G39" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H39" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="I39" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="J39" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -6497,25 +6521,25 @@
         <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E40" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F40" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G40" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="I40" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="J40" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -6526,28 +6550,28 @@
         <v>21330051920326</v>
       </c>
       <c r="B41" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E41" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F41" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H41" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="I41" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="J41" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -6564,22 +6588,22 @@
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E42" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F42" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H42" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="I42" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J42" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -6593,28 +6617,28 @@
         <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D43" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E43" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F43" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G43" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H43" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="I43" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J43" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -6628,28 +6652,28 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D44" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E44" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F44" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G44" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H44" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="I44" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="J44" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -6663,28 +6687,28 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D45" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E45" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F45" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G45" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H45" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I45" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J45" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -6752,28 +6776,28 @@
         <v>19330051920148</v>
       </c>
       <c r="B2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="I2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="J2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -6784,31 +6808,31 @@
         <v>19330051920149</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="I3" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="J3" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -6819,31 +6843,31 @@
         <v>19330051920150</v>
       </c>
       <c r="B4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F4" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G4" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H4" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="I4" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="J4" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -6854,31 +6878,31 @@
         <v>19330051920153</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E5" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F5" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G5" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="I5" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="J5" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -6889,31 +6913,31 @@
         <v>19330051920152</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F6" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="G6" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H6" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="I6" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="J6" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -6924,28 +6948,28 @@
         <v>19330051920154</v>
       </c>
       <c r="B7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H7" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="J7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -6956,31 +6980,31 @@
         <v>19330051920276</v>
       </c>
       <c r="B8" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E8" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H8" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="I8" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="J8" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -6991,31 +7015,31 @@
         <v>19330051920151</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E9" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H9" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="I9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="J9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -7026,31 +7050,31 @@
         <v>19330051920157</v>
       </c>
       <c r="B10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E10" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F10" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G10" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H10" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="I10" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="J10" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7067,25 +7091,25 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E11" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F11" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G11" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H11" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I11" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="J11" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -7099,25 +7123,25 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D12" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E12" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F12" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H12" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="I12" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="J12" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -7134,25 +7158,25 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E13" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F13" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G13" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H13" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="I13" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J13" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -7163,28 +7187,28 @@
         <v>19330051920423</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D14" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E14" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F14" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H14" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="I14" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="J14" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -7195,31 +7219,31 @@
         <v>19330051920281</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E15" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F15" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G15" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H15" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I15" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="J15" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -7233,25 +7257,25 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D16" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E16" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F16" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G16" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H16" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="J16" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -7262,31 +7286,31 @@
         <v>19330051920162</v>
       </c>
       <c r="B17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D17" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E17" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F17" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G17" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H17" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="I17" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="J17" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -7300,25 +7324,25 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D18" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E18" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F18" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H18" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="I18" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="J18" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -7329,31 +7353,31 @@
         <v>19330051920163</v>
       </c>
       <c r="B19" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E19" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F19" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G19" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H19" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="I19" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="J19" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -7364,31 +7388,31 @@
         <v>19330051920156</v>
       </c>
       <c r="B20" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E20" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F20" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G20" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H20" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="I20" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="J20" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -7399,28 +7423,28 @@
         <v>19330051920165</v>
       </c>
       <c r="B21" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C21" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D21" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E21" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F21" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G21" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H21" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="J21" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -7431,25 +7455,25 @@
         <v>19330051920166</v>
       </c>
       <c r="B22" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C22" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D22" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E22" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F22" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H22" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="I22" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -7460,28 +7484,28 @@
         <v>19330051920168</v>
       </c>
       <c r="B23" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E23" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F23" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H23" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I23" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="J23" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -7492,31 +7516,31 @@
         <v>19330051920170</v>
       </c>
       <c r="B24" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E24" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F24" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G24" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H24" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="I24" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="J24" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -7527,31 +7551,31 @@
         <v>19330051920172</v>
       </c>
       <c r="B25" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C25" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E25" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F25" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G25" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H25" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="I25" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="J25" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -7565,28 +7589,28 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D26" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E26" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F26" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G26" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H26" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I26" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="J26" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -7603,22 +7627,22 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E27" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F27" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H27" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="I27" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J27" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -7635,25 +7659,25 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E28" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F28" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G28" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H28" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I28" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="J28" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -7667,28 +7691,28 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D29" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E29" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F29" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G29" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H29" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="I29" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="J29" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -7699,31 +7723,31 @@
         <v>19330051920178</v>
       </c>
       <c r="B30" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C30" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D30" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E30" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F30" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G30" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H30" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I30" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="J30" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -7740,25 +7764,25 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E31" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F31" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G31" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H31" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="I31" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="J31" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -7772,28 +7796,28 @@
         <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D32" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E32" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F32" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G32" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H32" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="I32" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="J32" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -7810,25 +7834,25 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E33" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F33" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G33" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H33" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="I33" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="J33" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -7842,28 +7866,28 @@
         <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D34" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E34" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F34" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G34" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H34" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="I34" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="J34" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -7874,31 +7898,31 @@
         <v>19330051920182</v>
       </c>
       <c r="B35" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C35" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D35" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E35" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F35" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G35" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H35" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="I35" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="J35" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -7912,28 +7936,28 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D36" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E36" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F36" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G36" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H36" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="I36" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="J36" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -8001,28 +8025,28 @@
         <v>20330051920187</v>
       </c>
       <c r="B2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F2" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="H2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="I2" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="J2" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8039,22 +8063,22 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E3" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F3" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="G3" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="H3" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="J3" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8065,28 +8089,28 @@
         <v>20330051920221</v>
       </c>
       <c r="B4" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C4" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D4" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E4" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F4" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H4" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="I4" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="J4" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -8097,28 +8121,28 @@
         <v>20330051920374</v>
       </c>
       <c r="B5" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E5" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F5" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="H5" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="I5" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="J5" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -8129,31 +8153,31 @@
         <v>20330051920222</v>
       </c>
       <c r="B6" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C6" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D6" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E6" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F6" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="G6" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="H6" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="I6" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="J6" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -8164,28 +8188,28 @@
         <v>20330051920223</v>
       </c>
       <c r="B7" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C7" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D7" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E7" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F7" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="H7" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="I7" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="J7" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -8196,31 +8220,31 @@
         <v>20330051920224</v>
       </c>
       <c r="B8" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="E8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F8" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="G8" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="H8" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="I8" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="J8" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8231,28 +8255,28 @@
         <v>20330051920225</v>
       </c>
       <c r="B9" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C9" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D9" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E9" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="F9" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="G9" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="H9" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="J9" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8269,22 +8293,22 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E10" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F10" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="H10" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="I10" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="J10" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8298,25 +8322,25 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D11" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E11" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F11" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="G11" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="H11" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="J11" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8327,31 +8351,31 @@
         <v>20330051920227</v>
       </c>
       <c r="B12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C12" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D12" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E12" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F12" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="G12" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="H12" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="I12" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="J12" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -8365,28 +8389,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D13" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="E13" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F13" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="G13" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="H13" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="I13" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="J13" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -8403,25 +8427,25 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="E14" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F14" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="G14" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="H14" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="I14" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="J14" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -8435,25 +8459,25 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D15" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E15" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="F15" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="G15" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="H15" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="J15" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -8464,31 +8488,31 @@
         <v>20330051920231</v>
       </c>
       <c r="B16" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C16" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D16" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="E16" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F16" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="G16" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="H16" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="I16" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="J16" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -8499,31 +8523,31 @@
         <v>20330051920232</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C17" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D17" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E17" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F17" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="G17" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="H17" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="I17" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="J17" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -8534,31 +8558,31 @@
         <v>20330051920233</v>
       </c>
       <c r="B18" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C18" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D18" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E18" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F18" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="G18" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="H18" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="I18" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="J18" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -8569,31 +8593,31 @@
         <v>20330051920234</v>
       </c>
       <c r="B19" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C19" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D19" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E19" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F19" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="G19" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="H19" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="I19" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="J19" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -8604,31 +8628,31 @@
         <v>20330051920376</v>
       </c>
       <c r="B20" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C20" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D20" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E20" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F20" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="G20" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="H20" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="I20" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="J20" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -8639,31 +8663,31 @@
         <v>20330051920236</v>
       </c>
       <c r="B21" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E21" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="F21" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="G21" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="H21" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="I21" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="J21" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -8674,28 +8698,28 @@
         <v>20330051920237</v>
       </c>
       <c r="B22" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D22" t="s">
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F22" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="H22" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="I22" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="J22" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -8709,28 +8733,28 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D23" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E23" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F23" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="G23" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="H23" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="I23" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="J23" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -8741,31 +8765,31 @@
         <v>20330051920239</v>
       </c>
       <c r="B24" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C24" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D24" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E24" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F24" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="G24" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="H24" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="I24" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="J24" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -8779,28 +8803,28 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D25" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E25" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="F25" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="G25" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="H25" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="I25" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="J25" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -8814,28 +8838,28 @@
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D26" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E26" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F26" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="G26" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H26" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I26" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="J26" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -8846,31 +8870,31 @@
         <v>20330051920243</v>
       </c>
       <c r="B27" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E27" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="F27" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="G27" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="H27" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="I27" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="J27" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -8881,25 +8905,25 @@
         <v>20330051920244</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D28" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E28" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F28" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="H28" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="J28" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -8913,28 +8937,28 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D29" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E29" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="F29" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="G29" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="H29" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="I29" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="J29" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -8948,28 +8972,28 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D30" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E30" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F30" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="G30" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="H30" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="I30" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="J30" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -8980,31 +9004,31 @@
         <v>20330051920250</v>
       </c>
       <c r="B31" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C31" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D31" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E31" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F31" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="G31" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="H31" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="I31" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="J31" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -9015,28 +9039,28 @@
         <v>20330051920251</v>
       </c>
       <c r="B32" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C32" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D32" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="E32" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F32" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="H32" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="I32" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="J32" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -9053,25 +9077,25 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E33" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="F33" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="G33" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="H33" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="I33" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="J33" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -9085,25 +9109,25 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D34" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E34" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F34" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="G34" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="H34" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="J34" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -9114,28 +9138,28 @@
         <v>20330051920256</v>
       </c>
       <c r="B35" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E35" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F35" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="H35" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="I35" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="J35" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -9149,28 +9173,28 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D36" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="E36" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F36" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="G36" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="H36" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="I36" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="J36" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -9181,25 +9205,25 @@
         <v>20330051920258</v>
       </c>
       <c r="B37" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C37" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D37" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E37" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="F37" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G37" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="H37" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -9210,25 +9234,25 @@
         <v>20330051920259</v>
       </c>
       <c r="B38" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C38" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D38" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E38" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F38" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="G38" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="H38" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="K38">
         <v>2</v>
